--- a/output.xlsx
+++ b/output.xlsx
@@ -472,34 +472,34 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>14478</v>
+        <v>14405.5</v>
       </c>
       <c r="C2" s="2">
-        <v>14478</v>
+        <v>14405.5</v>
       </c>
       <c r="D2" s="2">
-        <v>0.570381751566009</v>
+        <v>0.573147927110687</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
       </c>
       <c r="F2" s="2">
-        <v>14478</v>
+        <v>14405.5</v>
       </c>
       <c r="G2" s="2">
-        <v>14478</v>
+        <v>14405.5</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J2" s="2">
-        <v>940</v>
+        <v>997</v>
       </c>
       <c r="K2" s="2">
-        <v>338</v>
+        <v>314.5</v>
       </c>
       <c r="L2" s="2">
-        <v>186</v>
+        <v>170.5</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>6</v>
@@ -511,7 +511,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -519,22 +519,22 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>4369</v>
+        <v>4266</v>
       </c>
       <c r="C3" s="2">
-        <v>4369</v>
+        <v>4266</v>
       </c>
       <c r="D3" s="2">
-        <v>0.17212307449868</v>
+        <v>0.169730245882072</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2">
-        <v>4369</v>
+        <v>4266</v>
       </c>
       <c r="G3" s="2">
-        <v>4369</v>
+        <v>4266</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>7</v>
@@ -543,10 +543,10 @@
         <v>0</v>
       </c>
       <c r="K3" s="2">
-        <v>943</v>
+        <v>921</v>
       </c>
       <c r="L3" s="2">
-        <v>504</v>
+        <v>458</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>7</v>
@@ -555,10 +555,10 @@
         <v>0</v>
       </c>
       <c r="P3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -566,22 +566,22 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>1277</v>
+        <v>1259</v>
       </c>
       <c r="C4" s="2">
-        <v>1277</v>
+        <v>1259</v>
       </c>
       <c r="D4" s="2">
-        <v>0.0503092621045582</v>
+        <v>0.0500915095090316</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>1277</v>
+        <v>1259</v>
       </c>
       <c r="G4" s="2">
-        <v>1277</v>
+        <v>1259</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>8</v>
@@ -590,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L4" s="2">
         <v>0</v>
@@ -613,22 +613,22 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>3000</v>
+        <v>2962</v>
       </c>
       <c r="C5" s="2">
-        <v>3000</v>
+        <v>2962</v>
       </c>
       <c r="D5" s="2">
-        <v>0.118189339321593</v>
+        <v>0.117848332935466</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>3000</v>
+        <v>2962</v>
       </c>
       <c r="G5" s="2">
-        <v>3000</v>
+        <v>2962</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>9</v>
@@ -637,10 +637,10 @@
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <v>631</v>
+        <v>616</v>
       </c>
       <c r="L5" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>9</v>
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -660,34 +660,34 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>2259</v>
+        <v>2241.5</v>
       </c>
       <c r="C6" s="2">
-        <v>2259</v>
+        <v>2241.5</v>
       </c>
       <c r="D6" s="2">
-        <v>0.0889965725091597</v>
+        <v>0.0891819845627437</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="2">
-        <v>2259</v>
+        <v>2241.5</v>
       </c>
       <c r="G6" s="2">
-        <v>2259</v>
+        <v>2241.5</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J6" s="2">
-        <v>184</v>
+        <v>162.5</v>
       </c>
       <c r="K6" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L6" s="2">
-        <v>30</v>
+        <v>28.5</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>10</v>

--- a/output.xlsx
+++ b/output.xlsx
@@ -123,12 +123,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,140 +470,140 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
-        <v>14405.5</v>
-      </c>
-      <c r="C2" s="2">
-        <v>14405.5</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.573147927110687</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="B2">
+        <v>14433.75</v>
+      </c>
+      <c r="C2">
+        <v>14433.75</v>
+      </c>
+      <c r="D2">
+        <v>0.570008293183793</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="2">
-        <v>14405.5</v>
-      </c>
-      <c r="G2" s="2">
-        <v>14405.5</v>
+      <c r="F2">
+        <v>14433.75</v>
+      </c>
+      <c r="G2">
+        <v>14433.75</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="2">
-        <v>997</v>
-      </c>
-      <c r="K2" s="2">
-        <v>314.5</v>
-      </c>
-      <c r="L2" s="2">
-        <v>170.5</v>
+      <c r="J2">
+        <v>978.5</v>
+      </c>
+      <c r="K2">
+        <v>308.5</v>
+      </c>
+      <c r="L2">
+        <v>188.75</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="2">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0.5</v>
+      <c r="O2">
+        <v>2.25</v>
+      </c>
+      <c r="P2">
+        <v>0.75</v>
+      </c>
+      <c r="Q2">
+        <v>2.5</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2">
-        <v>4266</v>
-      </c>
-      <c r="C3" s="2">
-        <v>4266</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.169730245882072</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="B3">
+        <v>4280.25</v>
+      </c>
+      <c r="C3">
+        <v>4280.25</v>
+      </c>
+      <c r="D3">
+        <v>0.16903285680436</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="2">
-        <v>4266</v>
-      </c>
-      <c r="G3" s="2">
-        <v>4266</v>
+      <c r="F3">
+        <v>4280.25</v>
+      </c>
+      <c r="G3">
+        <v>4280.25</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>921</v>
-      </c>
-      <c r="L3" s="2">
-        <v>458</v>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>936</v>
+      </c>
+      <c r="L3">
+        <v>478.25</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="2">
-        <v>0</v>
-      </c>
-      <c r="P3" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0</v>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>2.25</v>
+      </c>
+      <c r="Q3">
+        <v>8.25</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2">
-        <v>1259</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1259</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.0500915095090316</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="B4">
+        <v>1311</v>
+      </c>
+      <c r="C4">
+        <v>1311</v>
+      </c>
+      <c r="D4">
+        <v>0.0517731616775926</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="2">
-        <v>1259</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1259</v>
+      <c r="F4">
+        <v>1311</v>
+      </c>
+      <c r="G4">
+        <v>1311</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>28</v>
-      </c>
-      <c r="L4" s="2">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>30.25</v>
+      </c>
+      <c r="L4">
         <v>0</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="2">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2">
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.25</v>
+      </c>
+      <c r="Q4">
         <v>0</v>
       </c>
     </row>
@@ -612,94 +611,94 @@
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2">
-        <v>2962</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2962</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.117848332935466</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="B5">
+        <v>3014</v>
+      </c>
+      <c r="C5">
+        <v>3014</v>
+      </c>
+      <c r="D5">
+        <v>0.119026933101651</v>
+      </c>
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="2">
-        <v>2962</v>
-      </c>
-      <c r="G5" s="2">
-        <v>2962</v>
+      <c r="F5">
+        <v>3014</v>
+      </c>
+      <c r="G5">
+        <v>3014</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>616</v>
-      </c>
-      <c r="L5" s="2">
-        <v>325</v>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>638</v>
+      </c>
+      <c r="L5">
+        <v>337.25</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="2">
-        <v>0</v>
-      </c>
-      <c r="P5" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>1.5</v>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>2.25</v>
+      </c>
+      <c r="Q5">
+        <v>3.25</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2">
-        <v>2241.5</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2241.5</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.0891819845627437</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="B6">
+        <v>2283</v>
+      </c>
+      <c r="C6">
+        <v>2283</v>
+      </c>
+      <c r="D6">
+        <v>0.0901587552326041</v>
+      </c>
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="2">
-        <v>2241.5</v>
-      </c>
-      <c r="G6" s="2">
-        <v>2241.5</v>
+      <c r="F6">
+        <v>2283</v>
+      </c>
+      <c r="G6">
+        <v>2283</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="2">
-        <v>162.5</v>
-      </c>
-      <c r="K6" s="2">
-        <v>43</v>
-      </c>
-      <c r="L6" s="2">
-        <v>28.5</v>
+      <c r="J6">
+        <v>161.5</v>
+      </c>
+      <c r="K6">
+        <v>47.5</v>
+      </c>
+      <c r="L6">
+        <v>33.5</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="2">
-        <v>0</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0</v>
+      <c r="O6">
+        <v>0.5</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
